--- a/2019/East Canyon/East Canyon Report.xlsx
+++ b/2019/East Canyon/East Canyon Report.xlsx
@@ -1,33 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\Fishing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\East Canyon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB90BA0-A7E9-472A-8D23-101241B45447}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2E19DD-2FA9-4A65-9368-39F6E9AA2C07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{1CC40C57-B481-453A-AD59-0982A2BF1FAD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{1CC40C57-B481-453A-AD59-0982A2BF1FAD}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
     <sheet name="2018" sheetId="1" r:id="rId2"/>
-    <sheet name="Overall Stats" sheetId="3" r:id="rId3"/>
+    <sheet name="2019" sheetId="4" r:id="rId3"/>
+    <sheet name="Overall Stats" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="40">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -117,13 +124,43 @@
   </si>
   <si>
     <t>Slow</t>
+  </si>
+  <si>
+    <t>Month/Day</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>9 Rainbow</t>
+  </si>
+  <si>
+    <t>41 Rainbow</t>
+  </si>
+  <si>
+    <t>7 Rainbow</t>
+  </si>
+  <si>
+    <t>10 Rainbow</t>
+  </si>
+  <si>
+    <t>27 Rainbow</t>
+  </si>
+  <si>
+    <t>Fishing Report 2019 East Canyon</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Fair</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +241,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -255,7 +306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,6 +343,15 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -301,13 +361,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -572,7 +633,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -1015,13 +1076,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.9230769230769231</c:v>
+                  <c:v>0.57803468208092479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96.15384615384616</c:v>
+                  <c:v>98.843930635838149</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9230769230769231</c:v>
+                  <c:v>0.57803468208092479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2665,12 +2726,12 @@
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
@@ -2715,12 +2776,12 @@
         <f>SUM(C4)</f>
         <v>11</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -2750,7 +2811,7 @@
       <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2767,8 +2828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66553105-2BBF-4E91-8E4B-80544A7877A3}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2800,24 +2861,24 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -2897,12 +2958,12 @@
       <c r="I5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -3069,7 +3130,7 @@
       <c r="A15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3085,11 +3146,272 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191C9ECA-381E-4AE9-BF4D-6C56AA980657}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="25"/>
+    </row>
+    <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8">
+        <v>9</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="8">
+        <v>121</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8">
+        <v>41</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
+        <v>24</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8">
+        <v>7</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>25</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8">
+        <v>10</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="17">
+        <f>SUM(I4/G10*100)</f>
+        <v>100</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8">
+        <v>27</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8">
+        <v>26</v>
+      </c>
+      <c r="G9" s="8">
+        <v>27</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="11">
+        <f>SUM(G4:G9)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="12">
+        <f>AVERAGE(G4:G9)</f>
+        <v>20.166666666666668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I5:L5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2918E2B-8E24-4AF4-8FF6-B2131238C978}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3101,12 +3423,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -3125,8 +3447,8 @@
         <v>1</v>
       </c>
       <c r="B3" s="8">
-        <f>SUM('2017'!E4+'2018'!K4)</f>
-        <v>50</v>
+        <f>SUM('2017'!E4+'2018'!K4+'2019'!I4)</f>
+        <v>171</v>
       </c>
       <c r="C3" s="8">
         <f>SUM('2018'!L4)</f>
@@ -3134,12 +3456,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -3155,15 +3477,15 @@
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <f>SUM(A3/$B$8*100)</f>
-        <v>1.9230769230769231</v>
+        <v>0.57803468208092479</v>
       </c>
       <c r="B6" s="17">
         <f>SUM(B3/$B$8*100)</f>
-        <v>96.15384615384616</v>
+        <v>98.843930635838149</v>
       </c>
       <c r="C6" s="17">
         <f>SUM(C3/$B$8*100)</f>
-        <v>1.9230769230769231</v>
+        <v>0.57803468208092479</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3171,8 +3493,8 @@
         <v>17</v>
       </c>
       <c r="B8" s="9">
-        <f>SUM('2017'!C5+'2018'!H12)</f>
-        <v>52</v>
+        <f>SUM('2017'!C5+'2018'!H12+'2019'!G10)</f>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3180,8 +3502,8 @@
         <v>18</v>
       </c>
       <c r="B9" s="9">
-        <f>SUM('2017'!C6+'2018'!H13)</f>
-        <v>9</v>
+        <f>SUM('2017'!C6+'2018'!H13+'2019'!G11)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3190,15 +3512,15 @@
       </c>
       <c r="B10" s="16">
         <f>SUM(B8/B9)</f>
-        <v>5.7777777777777777</v>
+        <v>11.533333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>29</v>
+      <c r="B11" s="27" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/2019/East Canyon/East Canyon Report.xlsx
+++ b/2019/East Canyon/East Canyon Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\East Canyon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2E19DD-2FA9-4A65-9368-39F6E9AA2C07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C07719-0082-45BF-AC12-1E3F25D9CA95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{1CC40C57-B481-453A-AD59-0982A2BF1FAD}"/>
   </bookViews>
